--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail9 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>5.655872633374755e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6663775643312777</v>
+        <v>2.368744650653804e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4115530654205473</v>
+        <v>5.360294181668389e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.368744650653804e-06</v>
+        <v>-0.06982653003465092</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.360294181668389e-06</v>
+        <v>0.06358786437351491</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06982653003465092</v>
+        <v>0.008904323817287185</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06358786437351491</v>
+        <v>1.929845029020965</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008904323817287185</v>
+        <v>3.115382741217833</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947560629650809</v>
+        <v>5.496070136491259</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.115382741217833</v>
+        <v>1.442917244573416e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.496070136491259</v>
+        <v>2817885917.931559</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.442917244573416e-16</v>
+        <v>4.269197031505775e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2817885917.931559</v>
+        <v>1145.745703217</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.269197031505775e-08</v>
+        <v>9.292769504462983e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1145.745703217</v>
+        <v>8.268766057992684</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.292769504462983e-05</v>
+        <v>1.520735598205683</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.268766057992684</v>
+        <v>0.006353698097337089</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.520735598205683</v>
+        <v>4.249134663477973</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006353698097337089</v>
+        <v>0.9629328228563785</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.249134663477973</v>
+        <v>1.109320093930635</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9629328228563785</v>
+        <v>156</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.109320093930635</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.697747198134559</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>5.415485694467486e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5856266802311456</v>
+        <v>2.149853363185217e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.6060200951627341</v>
+        <v>5.322748006613479e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.149853363185217e-06</v>
+        <v>-0.06618047501173351</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.322748006613479e-06</v>
+        <v>0.04671002185161688</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06618047501173351</v>
+        <v>0.006553700664900053</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04671002185161688</v>
+        <v>1.923242715646032</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006553700664900053</v>
+        <v>3.125852124397645</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.942444071131792</v>
+        <v>5.115506894157654</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.125852124397645</v>
+        <v>1.720648061968054e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.115506894157654</v>
+        <v>2431343933.932469</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.720648061968054e-16</v>
+        <v>4.942229591706407e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2431343933.932469</v>
+        <v>1017.149629423543</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.942229591706407e-08</v>
+        <v>9.479010101947563e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1017.149629423543</v>
+        <v>7.139884819602865</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.479010101947563e-05</v>
+        <v>1.493521790596536</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.139884819602865</v>
+        <v>0.004832205526700061</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.493521790596536</v>
+        <v>4.066431595157511</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004832205526700061</v>
+        <v>0.9629624690797708</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.066431595157511</v>
+        <v>1.102212056399922</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9629624690797708</v>
+        <v>154</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.102212056399922</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.995409552414829</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>5.231853972076864e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5372000375589165</v>
+        <v>2.000552569637382e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7004279023855373</v>
+        <v>5.28824113076345e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.000552569637382e-06</v>
+        <v>-0.06374054680971865</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.28824113076345e-06</v>
+        <v>0.03634394214613469</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06374054680971865</v>
+        <v>0.005379709347577416</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03634394214613469</v>
+        <v>1.91321479736572</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005379709347577416</v>
+        <v>3.061542167435564</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.937740447441044</v>
+        <v>5.073453331154351</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.061542167435564</v>
+        <v>1.749290987531916e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.073453331154351</v>
+        <v>2374012715.466528</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.749290987531916e-16</v>
+        <v>5.051784085519893e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2374012715.466528</v>
+        <v>985.8892703936407</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.051784085519893e-08</v>
+        <v>0.0001055673483635677</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>985.8892703936407</v>
+        <v>7.92718812131853</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001055673483635677</v>
+        <v>1.490247250923432</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.92718812131853</v>
+        <v>0.006633885056532949</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.490247250923432</v>
+        <v>3.855978713789518</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006633885056532949</v>
+        <v>0.9624235673419735</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.855978713789518</v>
+        <v>1.152079296385036</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9624235673419735</v>
+        <v>186</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.152079296385036</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.841611263311324</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>5.081087802722447e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5064383873258326</v>
+        <v>1.898788497901824e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7460061669979487</v>
+        <v>5.255803608504506e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.898788497901824e-06</v>
+        <v>-0.0622889082919387</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.255803608504506e-06</v>
+        <v>0.03094701768466692</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0622889082919387</v>
+        <v>0.004835731004977643</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03094701768466692</v>
+        <v>1.908035525184018</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004835731004977643</v>
+        <v>2.849369852561875</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.935592018029286</v>
+        <v>5.052596282557792</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.849369852561875</v>
+        <v>1.763762894638908e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.052596282557792</v>
+        <v>2364041103.557829</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.763762894638908e-16</v>
+        <v>5.057599841657009e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2364041103.557829</v>
+        <v>985.7124650103527</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.057599841657009e-08</v>
+        <v>0.0001191182738385964</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>985.7124650103527</v>
+        <v>8.854649964733166</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001191182738385964</v>
+        <v>1.446784690686333</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.854649964733166</v>
+        <v>0.0093394475334912</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.446784690686333</v>
+        <v>3.709859307939759</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0093394475334912</v>
+        <v>0.9623760600567147</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.709859307939759</v>
+        <v>1.109874336769839</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9623760600567147</v>
+        <v>198</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.109874336769839</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.840531502572734</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>4.948404910161059e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4843073756814193</v>
+        <v>1.82351866393885e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7704030453949251</v>
+        <v>5.224799130048591e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.82351866393885e-06</v>
+        <v>-0.06142189886618954</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.224799130048591e-06</v>
+        <v>0.02852603680347059</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06142189886618954</v>
+        <v>0.004585061835255603</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.02852603680347059</v>
+        <v>1.906735889897498</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.004585061835255603</v>
+        <v>2.917269153371908</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.935497454437048</v>
+        <v>5.555436626498257</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.917269153371908</v>
+        <v>2.204512871564158e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.555436626498257</v>
+        <v>1888657951.274802</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.204512871564158e-16</v>
+        <v>6.351871916004017e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1888657951.274802</v>
+        <v>786.3561028306671</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.351871916004017e-08</v>
+        <v>0.0001210886077750245</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>786.3561028306671</v>
+        <v>9.04447043226836</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001210886077750245</v>
+        <v>1.43008390279062</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.04447043226836</v>
+        <v>0.00990534422609984</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.43008390279062</v>
+        <v>3.703237946071102</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00990534422609984</v>
+        <v>0.9621506059398488</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.703237946071102</v>
+        <v>1.14389406756262</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9621506059398488</v>
+        <v>196</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.14389406756262</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.851392143740144</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>4.826951798101496e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4678735126186043</v>
+        <v>1.756684243810583e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7832050572834524</v>
+        <v>5.194978519143156e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.756684243810583e-06</v>
+        <v>-0.06065714141252058</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.194978519143156e-06</v>
+        <v>0.02725192841875825</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06065714141252058</v>
+        <v>0.004421200220646682</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.02725192841875825</v>
+        <v>1.911110039603422</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.004421200220646682</v>
+        <v>2.514317265618247</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.939919705568573</v>
+        <v>5.429247393908653</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.514317265618247</v>
+        <v>3.606900536146974e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.429247393908653</v>
+        <v>1165569857.305901</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.606900536146974e-16</v>
+        <v>1.029766595230452e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1165569857.305901</v>
+        <v>490.0165876857079</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.029766595230452e-07</v>
+        <v>0.0001073801652855106</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>490.0165876857079</v>
+        <v>8.510641775644856</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001073801652855106</v>
+        <v>1.56886100690205</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.510641775644856</v>
+        <v>0.007777655268071967</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.56886100690205</v>
+        <v>3.876933800846483</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007777655268071967</v>
+        <v>0.9606355760940808</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.876933800846483</v>
+        <v>1.187710953829111</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9606355760940808</v>
+        <v>174</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.187710953829111</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.978063777580762</v>
       </c>
     </row>
@@ -1513,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.477840017384462</v>
+        <v>1.498442245118691</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.627388667437859</v>
@@ -1602,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.493420498776876</v>
+        <v>1.512962754901082</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.456958119962971</v>
@@ -1691,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501419002910909</v>
+        <v>1.520033173107985</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.600503771607229</v>
@@ -1780,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504760882999274</v>
+        <v>1.520934301519709</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.46378864816745</v>
@@ -1869,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516928170830099</v>
+        <v>1.533822443176923</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.452091352065205</v>
@@ -1958,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.505279462257144</v>
+        <v>1.52308258338108</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.708828984456308</v>
@@ -2047,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.514098270101964</v>
+        <v>1.531844030485769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.561861850417788</v>
@@ -2136,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.503062657001739</v>
+        <v>1.524393798667835</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.549084136312469</v>
@@ -2225,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.472891351049499</v>
+        <v>1.49329534526661</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.652491180704863</v>
@@ -2314,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.459275983014698</v>
+        <v>1.475373922826714</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.579548758689297</v>
@@ -2403,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.422106143608531</v>
+        <v>1.430463979534713</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.41471393452603</v>
@@ -2492,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.398925792831713</v>
+        <v>1.40826196929213</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.57936957522912</v>
@@ -2581,7 +2533,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.399377523707197</v>
+        <v>1.411740192567168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.535470963876385</v>
@@ -2670,7 +2622,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.418643284305886</v>
+        <v>1.443236536574714</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.551525561980721</v>
@@ -2759,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442332045886352</v>
+        <v>1.464002978457995</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.539756750932905</v>
@@ -2848,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.444887182471534</v>
+        <v>1.464401390620891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.402289351669914</v>
@@ -2937,7 +2889,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.427229365467608</v>
+        <v>1.449860967891964</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.387985680233246</v>
@@ -3026,7 +2978,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.430073779988436</v>
+        <v>1.45320574176565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.297831061944871</v>
@@ -3115,7 +3067,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.436990315175615</v>
+        <v>1.453864311911789</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.279249462070041</v>
@@ -3204,7 +3156,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.42206067003563</v>
+        <v>1.435313159089662</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.361942643650472</v>
@@ -3293,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440451536634213</v>
+        <v>1.455109890318889</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.333479275699048</v>
@@ -3382,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.435429697087536</v>
+        <v>1.445970746799396</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.442837235516607</v>
@@ -3471,7 +3423,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.410415133759195</v>
+        <v>1.421634697838568</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.351852465645504</v>
@@ -3560,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.41924102738379</v>
+        <v>1.431345465668794</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.382319097042741</v>
@@ -3649,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.411053409430275</v>
+        <v>1.42770337230146</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.131611622735635</v>
@@ -3738,7 +3690,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.414246220673126</v>
+        <v>1.441191269218137</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.515793109863</v>
@@ -3827,7 +3779,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.424768646753247</v>
+        <v>1.449939788499377</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.553779401162991</v>
@@ -3916,7 +3868,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.408164710182082</v>
+        <v>1.428110233642721</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.598715540273717</v>
@@ -4005,7 +3957,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.377136710769943</v>
+        <v>1.398807576390227</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.596523813916171</v>
@@ -4094,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.354810389704835</v>
+        <v>1.376509263123868</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.585550825077743</v>
@@ -4183,7 +4135,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.344031040244182</v>
+        <v>1.364774559925634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.458830725015205</v>
@@ -4272,7 +4224,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.343797507716511</v>
+        <v>1.365919143483804</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.590564525672468</v>
@@ -4361,7 +4313,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.331141842666424</v>
+        <v>1.347462535875262</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.638780697473185</v>
@@ -4450,7 +4402,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.315072578227555</v>
+        <v>1.336834357988928</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.340511935462332</v>
@@ -4539,7 +4491,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.308543809596033</v>
+        <v>1.329469099057063</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.672776430578788</v>
@@ -4628,7 +4580,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.294015471193854</v>
+        <v>1.311656431027722</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.752701134102069</v>
@@ -4717,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.303079179833511</v>
+        <v>1.323456485912243</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.448384786819412</v>
@@ -4806,7 +4758,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.308280787789758</v>
+        <v>1.326437818147539</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.525944069588763</v>
@@ -4895,7 +4847,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.315651270412759</v>
+        <v>1.330349900183769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.544373428088863</v>
@@ -4984,7 +4936,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.324492667074252</v>
+        <v>1.339073515020248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.381423539088138</v>
@@ -5073,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.335960973423156</v>
+        <v>1.345263433822962</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.381231825078314</v>
@@ -5162,7 +5114,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.32126218824196</v>
+        <v>1.330792152493212</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.520198912854489</v>
@@ -5251,7 +5203,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.33878382649789</v>
+        <v>1.350596794836676</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.208740010609406</v>
@@ -5340,7 +5292,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.343425629801212</v>
+        <v>1.360702037349781</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.317651197903446</v>
@@ -5429,7 +5381,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.360638093810173</v>
+        <v>1.379853165255522</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.447607526019329</v>
@@ -5518,7 +5470,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.360521121988381</v>
+        <v>1.382560875498374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.578895085716078</v>
@@ -5607,7 +5559,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.354702983865867</v>
+        <v>1.372095414086795</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.322758648303307</v>
@@ -5696,7 +5648,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.366459702202109</v>
+        <v>1.394019563135938</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.407404964355696</v>
@@ -5785,7 +5737,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.369972812132486</v>
+        <v>1.397026123864996</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.534585276936144</v>
@@ -5874,7 +5826,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.389894758538275</v>
+        <v>1.423052531044302</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.662551001011547</v>
@@ -5963,7 +5915,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.409346318007097</v>
+        <v>1.442625632488698</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.384991067909171</v>
@@ -6249,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.405982569500124</v>
+        <v>1.402963755103311</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.322291367354404</v>
@@ -6338,7 +6290,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411021352383196</v>
+        <v>1.410682864711712</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.285325158706861</v>
@@ -6427,7 +6379,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381196066498399</v>
+        <v>1.381989229269825</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.328535389161078</v>
@@ -6516,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.376672557766242</v>
+        <v>1.374137307701969</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.22816098649947</v>
@@ -6605,7 +6557,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.373379357662775</v>
+        <v>1.37039184593303</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.297391096067544</v>
@@ -6694,7 +6646,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.350207605634087</v>
+        <v>1.342850991451739</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.152864184267054</v>
@@ -6783,7 +6735,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.335877191156643</v>
+        <v>1.329214316340662</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.242672340330519</v>
@@ -6872,7 +6824,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.313729173607273</v>
+        <v>1.308550343771347</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.207650141622721</v>
@@ -6961,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.285055116842731</v>
+        <v>1.275616265356787</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.252407641230568</v>
@@ -7050,7 +7002,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.279197289666419</v>
+        <v>1.271290670527906</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.349360346463089</v>
@@ -7139,7 +7091,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.269736228387389</v>
+        <v>1.252030581288059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.373250429315773</v>
@@ -7228,7 +7180,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.274609858432548</v>
+        <v>1.258706938430525</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.234689442138099</v>
@@ -7317,7 +7269,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.304696850271951</v>
+        <v>1.297490432361884</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.233718997753854</v>
@@ -7406,7 +7358,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.328350810079783</v>
+        <v>1.328294057206109</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.43775071669415</v>
@@ -7495,7 +7447,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.352406789558113</v>
+        <v>1.35031318036974</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.423574005416082</v>
@@ -7584,7 +7536,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.364315485512151</v>
+        <v>1.361321077286074</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.401632441568169</v>
@@ -7673,7 +7625,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.378686207857914</v>
+        <v>1.376100272807101</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.365192366058666</v>
@@ -7762,7 +7714,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.412501617374109</v>
+        <v>1.413974607198861</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.36923022674954</v>
@@ -7851,7 +7803,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.426891988249985</v>
+        <v>1.429257292301572</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.457963985478345</v>
@@ -7940,7 +7892,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.415552541597706</v>
+        <v>1.419657306732004</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.416390049150287</v>
@@ -8029,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.432345744568245</v>
+        <v>1.44131406706827</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435855450736466</v>
@@ -8118,7 +8070,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436170334456119</v>
+        <v>1.443747271916266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.484697491297007</v>
@@ -8207,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.424025136603672</v>
+        <v>1.430361828889582</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.34593953688801</v>
@@ -8296,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.42529956379202</v>
+        <v>1.436139303976006</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.451909592821008</v>
@@ -8385,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412087035214507</v>
+        <v>1.421854558040508</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.228501540129528</v>
@@ -8474,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.380359157349829</v>
+        <v>1.40749740767818</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.275710933492365</v>
@@ -8563,7 +8515,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.338951367446616</v>
+        <v>1.359921177092793</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.334283342122867</v>
@@ -8652,7 +8604,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.305844799695025</v>
+        <v>1.321441940596295</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.401103565317916</v>
@@ -8741,7 +8693,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.267678809706352</v>
+        <v>1.283934735672279</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.459894548850857</v>
@@ -8830,7 +8782,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.246116223322952</v>
+        <v>1.259753106712782</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.432435476391977</v>
@@ -8919,7 +8871,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.230624257294356</v>
+        <v>1.241815070738266</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.466776814067788</v>
@@ -9008,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.222284318237842</v>
+        <v>1.232860504186739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.531282932348136</v>
@@ -9097,7 +9049,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.205195045232231</v>
+        <v>1.200755142107909</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.574612229041586</v>
@@ -9186,7 +9138,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.194003705390193</v>
+        <v>1.193957308789887</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.228062469331966</v>
@@ -9275,7 +9227,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.183209456746374</v>
+        <v>1.182535069373114</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.46414714574926</v>
@@ -9364,7 +9316,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.174531217941075</v>
+        <v>1.1710445788346</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.56429172648865</v>
@@ -9453,7 +9405,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.170645120885852</v>
+        <v>1.169753902570128</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.434500417906172</v>
@@ -9542,7 +9494,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.174492188865569</v>
+        <v>1.171759645622779</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.36427000841244</v>
@@ -9631,7 +9583,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.182085560103135</v>
+        <v>1.176572176208916</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.340738681428039</v>
@@ -9720,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.183806577577201</v>
+        <v>1.178508605034559</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.206212244322737</v>
@@ -9809,7 +9761,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.201621567414447</v>
+        <v>1.193004028775722</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.177437036415512</v>
@@ -9898,7 +9850,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.205779359301463</v>
+        <v>1.198497248459755</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.287035781827724</v>
@@ -9987,7 +9939,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.21370448479173</v>
+        <v>1.206285465345898</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.131129489107334</v>
@@ -10076,7 +10028,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.214710978103635</v>
+        <v>1.212747252434429</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.136015249679714</v>
@@ -10165,7 +10117,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.224635066310753</v>
+        <v>1.223986989841847</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.173375081887289</v>
@@ -10254,7 +10206,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.229686925070974</v>
+        <v>1.232269901377012</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.240936115293931</v>
@@ -10343,7 +10295,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.230640200964422</v>
+        <v>1.228383505106831</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.167301759708198</v>
@@ -10432,7 +10384,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.232519073661217</v>
+        <v>1.245926022282911</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.138161948038439</v>
@@ -10521,7 +10473,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.225229119934854</v>
+        <v>1.235586250338548</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.185256804789572</v>
@@ -10610,7 +10562,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.242744492752897</v>
+        <v>1.25545195313342</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.356603960621412</v>
@@ -10699,7 +10651,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.258658614407671</v>
+        <v>1.272682538639423</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.157196277738563</v>
@@ -10985,7 +10937,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.56518453338095</v>
+        <v>1.5465121118541</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.419562011882312</v>
@@ -11074,7 +11026,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.58950556257004</v>
+        <v>1.572706944687754</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.634350620651713</v>
@@ -11163,7 +11115,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567694630730083</v>
+        <v>1.557209018842351</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.647262242964153</v>
@@ -11252,7 +11204,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563320122895669</v>
+        <v>1.551052520434495</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.73770490146227</v>
@@ -11341,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.56486805155471</v>
+        <v>1.551198754641649</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.792969883441255</v>
@@ -11430,7 +11382,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.549151818326384</v>
+        <v>1.5367951331159</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.652210349484406</v>
@@ -11519,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.523106447756611</v>
+        <v>1.512433192142315</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.62361027566187</v>
@@ -11608,7 +11560,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499096810279883</v>
+        <v>1.486610971862218</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.680266154379009</v>
@@ -11697,7 +11649,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.459582520512219</v>
+        <v>1.446849777287145</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.730436298325353</v>
@@ -11786,7 +11738,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.448676057785515</v>
+        <v>1.433422377892199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.600564317117058</v>
@@ -11875,7 +11827,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438662691682488</v>
+        <v>1.423232480010925</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.537531255029215</v>
@@ -11964,7 +11916,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436563159629895</v>
+        <v>1.420340709002694</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.734920548736843</v>
@@ -12053,7 +12005,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463411855559756</v>
+        <v>1.447907756602761</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.682040502021759</v>
@@ -12142,7 +12094,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.479213258002664</v>
+        <v>1.467635893254535</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.583405904045987</v>
@@ -12231,7 +12183,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491026768931294</v>
+        <v>1.478478371191635</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.663748888711987</v>
@@ -12320,7 +12272,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485588833719433</v>
+        <v>1.469996784304495</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.664829724626546</v>
@@ -12409,7 +12361,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.479537828143016</v>
+        <v>1.464177121403787</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.58780818204852</v>
@@ -12498,7 +12450,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.495679400080935</v>
+        <v>1.477873523151887</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.424965038626639</v>
@@ -12587,7 +12539,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500326022828808</v>
+        <v>1.480703749373524</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.634835557163321</v>
@@ -12676,7 +12628,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491453346913034</v>
+        <v>1.476773217297189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.387199186788745</v>
@@ -12765,7 +12717,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.498398698377527</v>
+        <v>1.483508613936624</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.5990059351344</v>
@@ -12854,7 +12806,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512046625201821</v>
+        <v>1.500514973061738</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.532038129731931</v>
@@ -12943,7 +12895,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.487198228286579</v>
+        <v>1.479493519311526</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.199302939380694</v>
@@ -13032,7 +12984,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.476203842029101</v>
+        <v>1.477233870094404</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.307092268192008</v>
@@ -13121,7 +13073,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.451487320277533</v>
+        <v>1.453999924672267</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.387546902154587</v>
@@ -13210,7 +13162,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.437907568432317</v>
+        <v>1.447650454467735</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.390875591838186</v>
@@ -13299,7 +13251,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.418855157083503</v>
+        <v>1.429064002479492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.449620852856999</v>
@@ -13388,7 +13340,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.390420558972757</v>
+        <v>1.397643294739622</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.442961518033107</v>
@@ -13477,7 +13429,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.366798720358813</v>
+        <v>1.379913197178167</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.528812920916726</v>
@@ -13566,7 +13518,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.350707450518774</v>
+        <v>1.361188225880144</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.414400626301898</v>
@@ -13655,7 +13607,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.340342545328026</v>
+        <v>1.350685212220558</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.480094189024155</v>
@@ -13744,7 +13696,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.335417400908551</v>
+        <v>1.34694410088383</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.566890106718274</v>
@@ -13833,7 +13785,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.326831690119836</v>
+        <v>1.330883767037992</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.598828850207223</v>
@@ -13922,7 +13874,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.314774743432215</v>
+        <v>1.325023492174464</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.471622370473248</v>
@@ -14011,7 +13963,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.300899339522795</v>
+        <v>1.311690290077768</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.562535805122083</v>
@@ -14100,7 +14052,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.287756410691537</v>
+        <v>1.296021194649023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.668053761789742</v>
@@ -14189,7 +14141,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.287886897110379</v>
+        <v>1.294494580038139</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.553619047050694</v>
@@ -14278,7 +14230,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.299274353425904</v>
+        <v>1.30424402836267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.502497022264985</v>
@@ -14367,7 +14319,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.317747426497214</v>
+        <v>1.320635825497195</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.496370059218729</v>
@@ -14456,7 +14408,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.327279743071043</v>
+        <v>1.329870324419247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.544117199500754</v>
@@ -14545,7 +14497,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.34016088040936</v>
+        <v>1.337562381707823</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.385764845495055</v>
@@ -14634,7 +14586,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.332507961391345</v>
+        <v>1.324830467924202</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.593658024363576</v>
@@ -14723,7 +14675,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.344967029277101</v>
+        <v>1.338091831672078</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.292284462249552</v>
@@ -14812,7 +14764,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.345123385698527</v>
+        <v>1.344374792948772</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.450069412358621</v>
@@ -14901,7 +14853,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.35673510997959</v>
+        <v>1.357890799568986</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.405774983475787</v>
@@ -14990,7 +14942,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.362638836776603</v>
+        <v>1.367044407664046</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.442926389572925</v>
@@ -15079,7 +15031,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.364077421081409</v>
+        <v>1.362153187716896</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.427744939680391</v>
@@ -15168,7 +15120,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.375015799453453</v>
+        <v>1.381813570561732</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.406743672210002</v>
@@ -15257,7 +15209,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.368700557591381</v>
+        <v>1.374928793109119</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.479949336440401</v>
@@ -15346,7 +15298,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388525183003663</v>
+        <v>1.396860597438053</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.710401767678381</v>
@@ -15435,7 +15387,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.406350204423676</v>
+        <v>1.415696959723298</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.464123551274162</v>
@@ -15721,7 +15673,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533494710983779</v>
+        <v>1.544646357542083</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.421424260326805</v>
@@ -15810,7 +15762,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56601150207919</v>
+        <v>1.579611217567937</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.629056236533302</v>
@@ -15899,7 +15851,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549942606423692</v>
+        <v>1.568060278585102</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.438894909278965</v>
@@ -15988,7 +15940,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544114445826885</v>
+        <v>1.560738635494725</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.602356372099771</v>
@@ -16077,7 +16029,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544733827108506</v>
+        <v>1.564844454018363</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40739973095748</v>
@@ -16166,7 +16118,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.529057399101915</v>
+        <v>1.545620491267718</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.568499120544612</v>
@@ -16255,7 +16207,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.503009509301997</v>
+        <v>1.524028782256948</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.526783374683313</v>
@@ -16344,7 +16296,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.484912089808188</v>
+        <v>1.508125179750637</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.35326659002635</v>
@@ -16433,7 +16385,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439492584386794</v>
+        <v>1.460210691576125</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.425825984830421</v>
@@ -16522,7 +16474,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.429748462074908</v>
+        <v>1.44844858669805</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.47636765199676</v>
@@ -16611,7 +16563,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.407353435185786</v>
+        <v>1.411374500906488</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.532257218819179</v>
@@ -16700,7 +16652,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.407758314607345</v>
+        <v>1.411636743870036</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.446933748978739</v>
@@ -16789,7 +16741,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.429634906472939</v>
+        <v>1.431156552442231</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.262973649846133</v>
@@ -16878,7 +16830,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457168938467986</v>
+        <v>1.471499943686142</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.483286491228626</v>
@@ -16967,7 +16919,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.486016680227837</v>
+        <v>1.496553131764098</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.460324108162049</v>
@@ -17056,7 +17008,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.494181188426728</v>
+        <v>1.501017509411457</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.420506163625468</v>
@@ -17145,7 +17097,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48595755981281</v>
+        <v>1.490616472005702</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.441458809464056</v>
@@ -17234,7 +17186,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511165562196835</v>
+        <v>1.510295037533736</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.322907876192554</v>
@@ -17323,7 +17275,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.519870042374045</v>
+        <v>1.513691373377424</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.383187276466446</v>
@@ -17412,7 +17364,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500743443713406</v>
+        <v>1.498461113404101</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.461994088739296</v>
@@ -17501,7 +17453,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.51874177118389</v>
+        <v>1.518702056870553</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.500371204219392</v>
@@ -17590,7 +17542,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527139041949489</v>
+        <v>1.526974118307986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.519825842423717</v>
@@ -17679,7 +17631,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.504540795044</v>
+        <v>1.505050159310419</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.374281111984045</v>
@@ -17768,7 +17720,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497725493258356</v>
+        <v>1.50420247312568</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.335344210400659</v>
@@ -17857,7 +17809,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.480605506373285</v>
+        <v>1.494059972692378</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.050719341806574</v>
@@ -17946,7 +17898,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443208625258565</v>
+        <v>1.470845655606382</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.379165518651648</v>
@@ -18035,7 +17987,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431386069285316</v>
+        <v>1.458103453723332</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.371289407553264</v>
@@ -18124,7 +18076,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402045131588313</v>
+        <v>1.423339655429545</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.502566110057634</v>
@@ -18213,7 +18165,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.361352379800402</v>
+        <v>1.387488870921208</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.538152208538468</v>
@@ -18302,7 +18254,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.335722064273819</v>
+        <v>1.359378244461712</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.569716514893635</v>
@@ -18391,7 +18343,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.315437760141897</v>
+        <v>1.336497078094654</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.585378084154013</v>
@@ -18480,7 +18432,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.312055285510889</v>
+        <v>1.334835855532519</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.615519888070262</v>
@@ -18569,7 +18521,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.29979040567663</v>
+        <v>1.312528361440911</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.685038435922501</v>
@@ -18658,7 +18610,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.284790407135643</v>
+        <v>1.303993339014094</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.29623277829434</v>
@@ -18747,7 +18699,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.268224590630249</v>
+        <v>1.285901932484107</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.567560804053027</v>
@@ -18836,7 +18788,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.256483787240364</v>
+        <v>1.271092482651876</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.808715836208473</v>
@@ -18925,7 +18877,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.255899016104669</v>
+        <v>1.272329972574488</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.660435288104021</v>
@@ -19014,7 +18966,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.261904721587759</v>
+        <v>1.276139064387065</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.480136788112335</v>
@@ -19103,7 +19055,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.271108906904253</v>
+        <v>1.281930881034606</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.414737264592783</v>
@@ -19192,7 +19144,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.277332213992673</v>
+        <v>1.287103534405211</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.395009069131822</v>
@@ -19281,7 +19233,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.294676345738238</v>
+        <v>1.301228815638126</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.291274586273288</v>
@@ -19370,7 +19322,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.276176337699709</v>
+        <v>1.278820687634917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.376436505807981</v>
@@ -19459,7 +19411,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.286181583038504</v>
+        <v>1.292334553222642</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.155829685022786</v>
@@ -19548,7 +19500,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.288239675074783</v>
+        <v>1.297906479982967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.245308529493797</v>
@@ -19637,7 +19589,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.308743483994569</v>
+        <v>1.32083595228515</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.282585888468389</v>
@@ -19726,7 +19678,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.318132681029998</v>
+        <v>1.337461732881785</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.34293106382498</v>
@@ -19815,7 +19767,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.320069453770452</v>
+        <v>1.33491531980964</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.269900277095691</v>
@@ -19904,7 +19856,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.333081139176134</v>
+        <v>1.359896732890608</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.205176794091664</v>
@@ -19993,7 +19945,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.336332496429162</v>
+        <v>1.364217898911858</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.303240572216216</v>
@@ -20082,7 +20034,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.356532283160763</v>
+        <v>1.385636437091048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.532379675071496</v>
@@ -20171,7 +20123,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.37520381265123</v>
+        <v>1.406252007044079</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.245145625343854</v>
@@ -20457,7 +20409,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315435846343484</v>
+        <v>1.283226746480284</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.499127047288999</v>
@@ -20546,7 +20498,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.396704958641263</v>
+        <v>1.391714357188742</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.143301598994515</v>
@@ -20635,7 +20587,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.38371986970306</v>
+        <v>1.377104303233448</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.423839803781365</v>
@@ -20724,7 +20676,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.389647179721515</v>
+        <v>1.381064555172353</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.148810650401826</v>
@@ -20813,7 +20765,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393687847205681</v>
+        <v>1.38044338369766</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.333110379874873</v>
@@ -20902,7 +20854,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.38340562945268</v>
+        <v>1.370386986260109</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.274814404431688</v>
@@ -20991,7 +20943,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.371420952186835</v>
+        <v>1.359780515150801</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.362275526055254</v>
@@ -21080,7 +21032,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.34841379692812</v>
+        <v>1.343288931699652</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.31831158789596</v>
@@ -21169,7 +21121,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.324801051055337</v>
+        <v>1.312046594498459</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.348996409165224</v>
@@ -21258,7 +21210,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.317590648051799</v>
+        <v>1.309758470724409</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.389824164835972</v>
@@ -21347,7 +21299,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.297480579780705</v>
+        <v>1.274444670903642</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.419051830761759</v>
@@ -21436,7 +21388,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.303124362679468</v>
+        <v>1.279898905640108</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.465673292177919</v>
@@ -21525,7 +21477,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.304209468226942</v>
+        <v>1.286377244887948</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.325986846623838</v>
@@ -21614,7 +21566,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.312294986003465</v>
+        <v>1.302172025849969</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.448656850748934</v>
@@ -21703,7 +21655,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.32951742941173</v>
+        <v>1.319472003081673</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.410429079713221</v>
@@ -21792,7 +21744,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.334344005567638</v>
+        <v>1.325132222727251</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.307425561439704</v>
@@ -21881,7 +21833,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.343570456172198</v>
+        <v>1.334031722341977</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.367797349513307</v>
@@ -21970,7 +21922,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.366786350162506</v>
+        <v>1.35785465235358</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.329638704775645</v>
@@ -22059,7 +22011,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.373747451696706</v>
+        <v>1.363822493538063</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.388734988553317</v>
@@ -22148,7 +22100,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.363111621230359</v>
+        <v>1.356417320061829</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.415209153909821</v>
@@ -22237,7 +22189,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.374604929122101</v>
+        <v>1.366037023603771</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.402365190064848</v>
@@ -22326,7 +22278,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.376380477330907</v>
+        <v>1.36844982452807</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.406888764493496</v>
@@ -22415,7 +22367,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.357345056486421</v>
+        <v>1.34519215196421</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.249119891009698</v>
@@ -22504,7 +22456,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.352407292143228</v>
+        <v>1.34693831330389</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.17005439000655</v>
@@ -22593,7 +22545,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.349219440276876</v>
+        <v>1.34945368627466</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.021087874189023</v>
@@ -22682,7 +22634,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.320821926796936</v>
+        <v>1.33819818731438</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.182882532982948</v>
@@ -22771,7 +22723,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.301156661092405</v>
+        <v>1.310275662696382</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.291196393489391</v>
@@ -22860,7 +22812,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.270098086863447</v>
+        <v>1.272956770261498</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.211837513079728</v>
@@ -22949,7 +22901,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.234930417038246</v>
+        <v>1.239084529493959</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.273169519334823</v>
@@ -23038,7 +22990,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.217369342300789</v>
+        <v>1.218760222059247</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.283900650158012</v>
@@ -23127,7 +23079,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.201616062544918</v>
+        <v>1.201131632161859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.342584123108366</v>
@@ -23216,7 +23168,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.198758280989187</v>
+        <v>1.199623723233189</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.426753192991448</v>
@@ -23305,7 +23257,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.184913629247935</v>
+        <v>1.17312598795588</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.374891462371426</v>
@@ -23394,7 +23346,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.174138985215482</v>
+        <v>1.16710183256825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.2158716973604</v>
@@ -23483,7 +23435,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.162346171305164</v>
+        <v>1.154754974807328</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.48565827554992</v>
@@ -23572,7 +23524,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.155126860316345</v>
+        <v>1.145735381058912</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.38833086066745</v>
@@ -23661,7 +23613,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.154153326818204</v>
+        <v>1.147210763733284</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.164120176093955</v>
@@ -23750,7 +23702,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.160780470062259</v>
+        <v>1.154442676875373</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.384020381461504</v>
@@ -23839,7 +23791,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.167399030750639</v>
+        <v>1.157718177835339</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.336273646305294</v>
@@ -23928,7 +23880,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.16751849064196</v>
+        <v>1.157944684927074</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.29713352896955</v>
@@ -24017,7 +23969,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.181240301745845</v>
+        <v>1.168456851866779</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.184399727910689</v>
@@ -24106,7 +24058,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.182470126129433</v>
+        <v>1.171330660207136</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.220665479332057</v>
@@ -24195,7 +24147,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.197527054016798</v>
+        <v>1.187660441233155</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.10326429298495</v>
@@ -24284,7 +24236,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.199166759166243</v>
+        <v>1.192847381730557</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.129889473708155</v>
@@ -24373,7 +24325,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.20628155172433</v>
+        <v>1.200385876055796</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.178438557329747</v>
@@ -24462,7 +24414,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.209736305166581</v>
+        <v>1.206640698161815</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.195833428650682</v>
@@ -24551,7 +24503,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.213731710032003</v>
+        <v>1.207878610834766</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.198501679712585</v>
@@ -24640,7 +24592,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.219205385108455</v>
+        <v>1.224808787874855</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.070292759261534</v>
@@ -24729,7 +24681,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.218027630977134</v>
+        <v>1.223187338751315</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.198664056183307</v>
@@ -24818,7 +24770,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.232303641714519</v>
+        <v>1.239139547194783</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.176466896997889</v>
@@ -24907,7 +24859,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.248803677023066</v>
+        <v>1.255985004271416</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.131682141552151</v>
@@ -25193,7 +25145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.525005704714218</v>
+        <v>1.51802287075945</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.149764403273232</v>
@@ -25282,7 +25234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.568159272696164</v>
+        <v>1.567321081722681</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.150130937233181</v>
@@ -25371,7 +25323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56974370557088</v>
+        <v>1.57194363329118</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.099285901771486</v>
@@ -25460,7 +25412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572873334832174</v>
+        <v>1.575903978143058</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.042226768196573</v>
@@ -25549,7 +25501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581704900054657</v>
+        <v>1.586845267562033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.120632840724498</v>
@@ -25638,7 +25590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.585575895712312</v>
+        <v>1.58817042577747</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.066418727156271</v>
@@ -25727,7 +25679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573632703192082</v>
+        <v>1.579053149421446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.073380879490388</v>
@@ -25816,7 +25768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562907412466426</v>
+        <v>1.569661708460483</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.200842605006429</v>
@@ -25905,7 +25857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52919572284153</v>
+        <v>1.532909610857424</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.077418766100774</v>
@@ -25994,7 +25946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.513999401810695</v>
+        <v>1.51175198339293</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.097578265409127</v>
@@ -26083,7 +26035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458570278817058</v>
+        <v>1.449718390259421</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.068254274216426</v>
@@ -26172,7 +26124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.447441929192284</v>
+        <v>1.438269574446946</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.151579452874309</v>
@@ -26261,7 +26213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.464961823874347</v>
+        <v>1.453853001249469</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.253765658682768</v>
@@ -26350,7 +26302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.499116999758502</v>
+        <v>1.512578402546239</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.162515759529571</v>
@@ -26439,7 +26391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.513879552399459</v>
+        <v>1.527166912828567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.104583900297293</v>
@@ -26528,7 +26480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.514563586069838</v>
+        <v>1.522079870871191</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.137277172202531</v>
@@ -26617,7 +26569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.500770147201704</v>
+        <v>1.507918391946756</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.127947802345805</v>
@@ -26706,7 +26658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514999909288628</v>
+        <v>1.518462818518235</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.048130227848556</v>
@@ -26795,7 +26747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.530923303154527</v>
+        <v>1.525950722262379</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.121933950150986</v>
@@ -26884,7 +26836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506613543506844</v>
+        <v>1.506160492179015</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.115302299251092</v>
@@ -26973,7 +26925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.500673278659167</v>
+        <v>1.504840533239184</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.137716548408853</v>
@@ -27062,7 +27014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.500184002039324</v>
+        <v>1.505964268944488</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.133768845515473</v>
@@ -27151,7 +27103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479960568566808</v>
+        <v>1.488862540690726</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.082523848898009</v>
@@ -27240,7 +27192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482083420571467</v>
+        <v>1.498303363798136</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.104366875927052</v>
@@ -27329,7 +27281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.499253178627609</v>
+        <v>1.512865041185655</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.980199528653428</v>
@@ -27418,7 +27370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48631245833843</v>
+        <v>1.522325905235637</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.711589332393268</v>
@@ -27507,7 +27459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467066687430575</v>
+        <v>1.502277123495286</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.178983641814372</v>
@@ -27596,7 +27548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.429431175246797</v>
+        <v>1.462234420448694</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.213134965789397</v>
@@ -27685,7 +27637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.401113491815993</v>
+        <v>1.434080112256363</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.221009481629525</v>
@@ -27774,7 +27726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.386129748550097</v>
+        <v>1.417870975728329</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.282493675758546</v>
@@ -27863,7 +27815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.373252657432483</v>
+        <v>1.405889972415</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.281537244651193</v>
@@ -27952,7 +27904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.374067711719194</v>
+        <v>1.409203388917772</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.330252551618145</v>
@@ -28041,7 +27993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.359376842768621</v>
+        <v>1.386667005233479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.273375720037857</v>
@@ -28130,7 +28082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.346638576366683</v>
+        <v>1.379838712700424</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.29828853879474</v>
@@ -28219,7 +28171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337892732118437</v>
+        <v>1.372303471143633</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.345563535479902</v>
@@ -28308,7 +28260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.331437385961459</v>
+        <v>1.361304410663492</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.255974734495046</v>
@@ -28397,7 +28349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.333035739949034</v>
+        <v>1.364560206616938</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.12695030759935</v>
@@ -28486,7 +28438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.340773238158359</v>
+        <v>1.37140685103129</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.362372047726641</v>
@@ -28575,7 +28527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.345585276162284</v>
+        <v>1.372251267418285</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.361062757289022</v>
@@ -28664,7 +28616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.355833423363189</v>
+        <v>1.383935511432555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.376868608917583</v>
@@ -28753,7 +28705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.377076079037783</v>
+        <v>1.405267290288937</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.30739647216143</v>
@@ -28842,7 +28794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.390070854304275</v>
+        <v>1.413569526734913</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.588830032601451</v>
@@ -28931,7 +28883,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415249550741324</v>
+        <v>1.441893533212602</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.554407238877217</v>
@@ -29020,7 +28972,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.425180108738331</v>
+        <v>1.457306256766594</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.419339334493284</v>
@@ -29109,7 +29061,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.446780148875639</v>
+        <v>1.482238582572893</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.598524085482727</v>
@@ -29198,7 +29150,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.450032982296527</v>
+        <v>1.487871478442718</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.670226217578587</v>
@@ -29287,7 +29239,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.44306728879945</v>
+        <v>1.478197211742568</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.574230985784173</v>
@@ -29376,7 +29328,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454793132389688</v>
+        <v>1.496692116727999</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.441560202727857</v>
@@ -29465,7 +29417,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.460268985195108</v>
+        <v>1.502256156326451</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.584149685173915</v>
@@ -29554,7 +29506,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483180278974109</v>
+        <v>1.525598858963568</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.716722392979788</v>
@@ -29643,7 +29595,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.49798599824779</v>
+        <v>1.540115182737718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.628392428073058</v>
